--- a/minitest.xlsx
+++ b/minitest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\DevOps\Devs\NOW\hf-batcher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E4C6DE-81B4-4AD3-B54C-54994A8D39B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B94EF6-0296-42F4-A6EF-1FDB38389C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="105">
   <si>
     <t>Source</t>
   </si>
@@ -329,6 +329,12 @@
   </si>
   <si>
     <t>https://euroglitter.com/results/minitest1/C4D03AQHaA_NSAx1ZAQ,Shot=3quarters-mediumshot5,Style=lineart.png</t>
+  </si>
+  <si>
+    <t>Shot</t>
+  </si>
+  <si>
+    <t>Style</t>
   </si>
 </sst>
 </file>
@@ -691,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,9 +709,10 @@
     <col min="2" max="2" width="34.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -719,10 +726,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -735,11 +748,11 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -752,11 +765,11 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -769,11 +782,11 @@
       <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -786,11 +799,11 @@
       <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -803,11 +816,11 @@
       <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -820,11 +833,11 @@
       <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -837,11 +850,11 @@
       <c r="D8" t="s">
         <v>8</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -854,11 +867,11 @@
       <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -871,11 +884,11 @@
       <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -886,7 +899,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -899,11 +912,11 @@
       <c r="D12" t="s">
         <v>8</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -916,11 +929,11 @@
       <c r="D13" t="s">
         <v>42</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -933,11 +946,11 @@
       <c r="D14" t="s">
         <v>8</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -950,11 +963,11 @@
       <c r="D15" t="s">
         <v>8</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -968,7 +981,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -981,11 +994,11 @@
       <c r="D17" t="s">
         <v>8</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -998,11 +1011,11 @@
       <c r="D18" t="s">
         <v>8</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -1015,11 +1028,11 @@
       <c r="D19" t="s">
         <v>8</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -1032,11 +1045,11 @@
       <c r="D20" t="s">
         <v>8</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G20" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -1049,11 +1062,11 @@
       <c r="D21" t="s">
         <v>8</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>68</v>
       </c>
@@ -1066,11 +1079,11 @@
       <c r="D22" t="s">
         <v>8</v>
       </c>
-      <c r="E22" t="s">
+      <c r="G22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -1083,11 +1096,11 @@
       <c r="D23" t="s">
         <v>8</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G23" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>74</v>
       </c>
@@ -1100,11 +1113,11 @@
       <c r="D24" t="s">
         <v>8</v>
       </c>
-      <c r="E24" t="s">
+      <c r="G24" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -1115,7 +1128,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>79</v>
       </c>
@@ -1128,11 +1141,11 @@
       <c r="D26" t="s">
         <v>8</v>
       </c>
-      <c r="E26" t="s">
+      <c r="G26" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>82</v>
       </c>
@@ -1145,11 +1158,11 @@
       <c r="D27" t="s">
         <v>8</v>
       </c>
-      <c r="E27" t="s">
+      <c r="G27" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>85</v>
       </c>
@@ -1163,7 +1176,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>87</v>
       </c>
@@ -1177,7 +1190,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>89</v>
       </c>
@@ -1188,7 +1201,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>92</v>
       </c>
@@ -1201,11 +1214,11 @@
       <c r="D31" t="s">
         <v>8</v>
       </c>
-      <c r="E31" t="s">
+      <c r="G31" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>95</v>
       </c>
@@ -1219,7 +1232,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>97</v>
       </c>
@@ -1232,11 +1245,11 @@
       <c r="D33" t="s">
         <v>8</v>
       </c>
-      <c r="E33" t="s">
+      <c r="G33" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>100</v>
       </c>
@@ -1249,7 +1262,7 @@
       <c r="D34" t="s">
         <v>8</v>
       </c>
-      <c r="E34" t="s">
+      <c r="G34" t="s">
         <v>102</v>
       </c>
     </row>
